--- a/0_docs/Problem_list.xlsx
+++ b/0_docs/Problem_list.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\유도진\Dropbox\MJU\Coin\2.study\21_1\Study-21-1-codingTest\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOJINYOU\Dropbox\MJU\Coin\2.study\21_1\Study-21-1-codingTest\0_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C32E91-2C2A-454D-9A06-62D934F7BC03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082E4BAB-4C91-412C-925B-F7378B7D602D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1차BOJ" sheetId="1" r:id="rId1"/>
+    <sheet name="1주차" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,35 +50,7 @@
     <t>Linked-Lists</t>
   </si>
   <si>
-    <t>1주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김휘준</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정동준</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조민정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고운</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉현수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현선재</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -89,12 +61,40 @@
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,12 +521,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -553,6 +547,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,9 +563,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -785,102 +785,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN274"/>
+  <dimension ref="A1:N274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
-    <col min="5" max="11" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.625" style="1"/>
+    <col min="5" max="11" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="22" customFormat="1" ht="6" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" s="22" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:12" s="33" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:12" s="31" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="34" t="s">
+      <c r="L2" s="30"/>
+    </row>
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="38">
+        <v>1</v>
+      </c>
+      <c r="F3" s="28">
+        <v>2</v>
+      </c>
+      <c r="G3" s="28">
+        <v>3</v>
+      </c>
+      <c r="H3" s="28">
+        <v>4</v>
+      </c>
+      <c r="I3" s="28">
+        <v>5</v>
+      </c>
+      <c r="J3" s="28">
+        <v>6</v>
+      </c>
+      <c r="K3" s="29">
         <v>7</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="32"/>
-    </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="40" t="s">
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="33">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="35">
-        <v>1</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="37">
+      <c r="D4" s="35">
         <v>2920</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="39"/>
+      <c r="K4" s="37"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:12" ht="21.75" customHeight="1">
+    <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="9">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="10">
         <v>2798</v>
@@ -894,13 +908,13 @@
       <c r="K5" s="23"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:12" ht="21.75" customHeight="1">
+    <row r="6" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="9">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="10">
         <v>1920</v>
@@ -914,7 +928,7 @@
       <c r="K6" s="23"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:12" ht="21.75" customHeight="1">
+    <row r="7" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="9">
         <v>4</v>
@@ -934,7 +948,7 @@
       <c r="K7" s="23"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="1:12" ht="21.75" customHeight="1">
+    <row r="8" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="9">
         <v>5</v>
@@ -954,7 +968,7 @@
       <c r="K8" s="23"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="1:12" ht="21.75" customHeight="1">
+    <row r="9" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="9">
         <v>6</v>
@@ -974,7 +988,7 @@
       <c r="K9" s="23"/>
       <c r="L9" s="18"/>
     </row>
-    <row r="10" spans="1:12" ht="21.75" customHeight="1">
+    <row r="10" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="9">
         <v>7</v>
@@ -994,7 +1008,7 @@
       <c r="K10" s="23"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:12" ht="21.75" customHeight="1">
+    <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="9">
         <v>8</v>
@@ -1014,7 +1028,7 @@
       <c r="K11" s="23"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="1:12" ht="21.75" customHeight="1">
+    <row r="12" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="9">
         <v>9</v>
@@ -1034,7 +1048,7 @@
       <c r="K12" s="23"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="1:12" ht="21.75" customHeight="1">
+    <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="9">
         <v>10</v>
@@ -1054,7 +1068,7 @@
       <c r="K13" s="23"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="14" spans="1:12" ht="21.75" customHeight="1">
+    <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="9">
         <v>11</v>
@@ -1074,7 +1088,7 @@
       <c r="K14" s="23"/>
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="1:12" ht="21.75" customHeight="1">
+    <row r="15" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="9">
         <v>12</v>
@@ -1094,7 +1108,7 @@
       <c r="K15" s="23"/>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="1:12" ht="21.75" customHeight="1">
+    <row r="16" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="9">
         <v>13</v>
@@ -1114,7 +1128,7 @@
       <c r="K16" s="23"/>
       <c r="L16" s="18"/>
     </row>
-    <row r="17" spans="1:12" ht="21.75" customHeight="1">
+    <row r="17" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="9">
         <v>14</v>
@@ -1134,7 +1148,7 @@
       <c r="K17" s="23"/>
       <c r="L17" s="18"/>
     </row>
-    <row r="18" spans="1:12" ht="21.75" customHeight="1">
+    <row r="18" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="9">
         <v>15</v>
@@ -1154,7 +1168,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="18"/>
     </row>
-    <row r="19" spans="1:12" ht="21.75" customHeight="1">
+    <row r="19" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="9">
         <v>16</v>
@@ -1174,7 +1188,7 @@
       <c r="K19" s="23"/>
       <c r="L19" s="18"/>
     </row>
-    <row r="20" spans="1:12" ht="21.75" customHeight="1">
+    <row r="20" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="9">
         <v>17</v>
@@ -1194,7 +1208,7 @@
       <c r="K20" s="23"/>
       <c r="L20" s="18"/>
     </row>
-    <row r="21" spans="1:12" ht="21.75" customHeight="1">
+    <row r="21" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="9">
         <v>18</v>
@@ -1214,7 +1228,7 @@
       <c r="K21" s="23"/>
       <c r="L21" s="18"/>
     </row>
-    <row r="22" spans="1:12" ht="21.75" customHeight="1">
+    <row r="22" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="9">
         <v>19</v>
@@ -1234,7 +1248,7 @@
       <c r="K22" s="23"/>
       <c r="L22" s="18"/>
     </row>
-    <row r="23" spans="1:12" ht="21.75" customHeight="1" thickBot="1">
+    <row r="23" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="11">
         <v>20</v>
@@ -1254,7 +1268,7 @@
       <c r="K23" s="26"/>
       <c r="L23" s="18"/>
     </row>
-    <row r="24" spans="1:12" ht="21.75" customHeight="1">
+    <row r="24" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -1267,7 +1281,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="21.75" customHeight="1">
+    <row r="25" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1279,7 +1293,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="21.75" customHeight="1">
+    <row r="26" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1291,7 +1305,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="21.75" customHeight="1">
+    <row r="27" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1303,7 +1317,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="21.75" customHeight="1">
+    <row r="28" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1315,7 +1329,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="21.75" customHeight="1">
+    <row r="29" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1327,7 +1341,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="21.75" customHeight="1">
+    <row r="30" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1339,7 +1353,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="21.75" customHeight="1">
+    <row r="31" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1351,7 +1365,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="21.75" customHeight="1">
+    <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1363,7 +1377,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="2:11" ht="21.75" customHeight="1">
+    <row r="33" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1375,7 +1389,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" ht="21.75" customHeight="1">
+    <row r="34" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1387,7 +1401,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="2:11" ht="21.75" customHeight="1">
+    <row r="35" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1399,7 +1413,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="2:11" ht="21.75" customHeight="1">
+    <row r="36" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1411,7 +1425,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:11" ht="21" customHeight="1">
+    <row r="37" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1423,7 +1437,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:11" ht="21.75" customHeight="1">
+    <row r="38" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1435,7 +1449,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" ht="21.75" customHeight="1">
+    <row r="39" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1447,7 +1461,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:11" ht="21.75" customHeight="1">
+    <row r="40" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1459,7 +1473,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:11" ht="21.75" customHeight="1">
+    <row r="41" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1471,7 +1485,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:11" ht="21.75" customHeight="1">
+    <row r="42" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1483,7 +1497,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:11" ht="21.75" customHeight="1">
+    <row r="43" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1495,7 +1509,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:11" ht="21.75" customHeight="1">
+    <row r="44" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1507,7 +1521,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="2:11" ht="21.75" customHeight="1">
+    <row r="45" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1519,7 +1533,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="2:11" ht="21.75" customHeight="1">
+    <row r="46" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1531,7 +1545,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="2:11" ht="21.75" customHeight="1">
+    <row r="47" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1543,7 +1557,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="2:11" ht="21.75" customHeight="1">
+    <row r="48" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1555,7 +1569,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="2:11" ht="21.75" customHeight="1">
+    <row r="49" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1567,7 +1581,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="2:11" ht="21.75" customHeight="1">
+    <row r="50" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1579,7 +1593,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="2:11" ht="21.75" customHeight="1">
+    <row r="51" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1591,7 +1605,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="2:11" ht="21.75" customHeight="1">
+    <row r="52" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1603,7 +1617,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="2:11" ht="21.75" customHeight="1">
+    <row r="53" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1615,7 +1629,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="2:11" ht="21.75" customHeight="1">
+    <row r="54" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -1627,7 +1641,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="2:11" ht="21.75" customHeight="1">
+    <row r="55" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1639,7 +1653,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="2:11" ht="21.75" customHeight="1">
+    <row r="56" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1651,7 +1665,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="2:11" ht="21.75" customHeight="1">
+    <row r="57" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -1663,7 +1677,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="2:11" ht="21.75" customHeight="1">
+    <row r="58" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -1675,7 +1689,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="2:11" ht="21.75" customHeight="1">
+    <row r="59" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -1687,7 +1701,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="2:11" ht="21.75" customHeight="1">
+    <row r="60" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -1699,7 +1713,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="2:11" ht="21.75" customHeight="1">
+    <row r="61" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -1711,7 +1725,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="2:11" ht="21.75" customHeight="1">
+    <row r="62" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -1723,7 +1737,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="2:11" ht="21.75" customHeight="1">
+    <row r="63" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -1735,7 +1749,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="2:11" ht="21.75" customHeight="1">
+    <row r="64" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -1747,7 +1761,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="2:11" ht="21.75" customHeight="1">
+    <row r="65" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -1759,7 +1773,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="2:11" ht="21.75" customHeight="1">
+    <row r="66" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -1771,7 +1785,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="2:11" ht="21.75" customHeight="1">
+    <row r="67" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -1783,7 +1797,7 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="2:11" ht="21.75" customHeight="1">
+    <row r="68" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -1795,7 +1809,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="2:11" ht="21.75" customHeight="1">
+    <row r="69" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -1807,7 +1821,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="2:11" ht="21.75" customHeight="1">
+    <row r="70" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -1819,7 +1833,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="2:11" ht="21.75" customHeight="1">
+    <row r="71" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -1831,7 +1845,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="2:11" ht="21.75" customHeight="1">
+    <row r="72" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -1843,7 +1857,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="2:11" ht="21.75" customHeight="1">
+    <row r="73" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -1855,7 +1869,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="2:11" ht="21.75" customHeight="1">
+    <row r="74" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -1867,7 +1881,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="2:11" ht="21.75" customHeight="1">
+    <row r="75" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -1879,7 +1893,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="2:11" ht="21.75" customHeight="1">
+    <row r="76" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -1891,7 +1905,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="2:11" ht="21.75" customHeight="1">
+    <row r="77" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -1903,7 +1917,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="2:11" ht="21.75" customHeight="1">
+    <row r="78" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -1915,7 +1929,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="2:11" ht="21.75" customHeight="1">
+    <row r="79" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -1927,7 +1941,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="2:11" ht="21.75" customHeight="1">
+    <row r="80" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -1939,7 +1953,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="2:11" ht="21.75" customHeight="1">
+    <row r="81" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -1951,7 +1965,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="2:11" ht="21.75" customHeight="1">
+    <row r="82" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -1963,7 +1977,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="2:11" ht="21.75" customHeight="1">
+    <row r="83" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -1975,7 +1989,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="2:11" ht="21.75" customHeight="1">
+    <row r="84" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -1987,7 +2001,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="2:11" ht="21.75" customHeight="1">
+    <row r="85" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -1999,7 +2013,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="2:11" ht="21.75" customHeight="1">
+    <row r="86" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -2011,7 +2025,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="2:11" ht="21.75" customHeight="1">
+    <row r="87" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -2023,7 +2037,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="2:11" ht="21.75" customHeight="1">
+    <row r="88" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -2035,7 +2049,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="2:11" ht="21.75" customHeight="1">
+    <row r="89" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -2047,7 +2061,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="2:11" ht="21.75" customHeight="1">
+    <row r="90" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -2059,7 +2073,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="2:11" ht="21.75" customHeight="1">
+    <row r="91" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -2071,7 +2085,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="2:11" ht="21.75" customHeight="1">
+    <row r="92" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -2083,7 +2097,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="2:11" ht="21.75" customHeight="1">
+    <row r="93" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -2095,7 +2109,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="2:11" ht="21.75" customHeight="1">
+    <row r="94" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -2107,7 +2121,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="2:11" ht="21.75" customHeight="1">
+    <row r="95" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -2119,7 +2133,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="2:11" ht="21.75" customHeight="1">
+    <row r="96" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -2131,7 +2145,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="2:11" ht="21.75" customHeight="1">
+    <row r="97" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -2143,7 +2157,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="2:11" ht="21.75" customHeight="1">
+    <row r="98" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -2155,7 +2169,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="2:11" ht="21.75" customHeight="1">
+    <row r="99" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -2167,7 +2181,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="2:11" ht="21.75" customHeight="1">
+    <row r="100" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -2179,7 +2193,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="2:11" ht="21.75" customHeight="1">
+    <row r="101" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -2191,7 +2205,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="2:11" ht="21.75" customHeight="1">
+    <row r="102" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -2203,7 +2217,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="2:11" ht="21.75" customHeight="1">
+    <row r="103" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -2215,7 +2229,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="2:11" ht="21.75" customHeight="1">
+    <row r="104" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -2227,7 +2241,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="2:11" ht="21.75" customHeight="1">
+    <row r="105" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -2239,7 +2253,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="2:11" ht="21.75" customHeight="1">
+    <row r="106" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -2251,7 +2265,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="2:11" ht="21.75" customHeight="1">
+    <row r="107" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -2263,7 +2277,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="2:11" ht="21.75" customHeight="1">
+    <row r="108" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -2275,7 +2289,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="2:11" ht="21.75" customHeight="1">
+    <row r="109" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -2287,7 +2301,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="2:11" ht="21.75" customHeight="1">
+    <row r="110" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -2299,7 +2313,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="2:11" ht="21.75" customHeight="1">
+    <row r="111" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -2311,7 +2325,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="2:11" ht="21.75" customHeight="1">
+    <row r="112" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -2323,7 +2337,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="2:11" ht="21.75" customHeight="1">
+    <row r="113" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -2335,7 +2349,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="2:11" ht="21.75" customHeight="1">
+    <row r="114" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -2347,7 +2361,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="2:11" ht="21.75" customHeight="1">
+    <row r="115" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -2359,7 +2373,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="2:11" ht="21.75" customHeight="1">
+    <row r="116" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -2371,7 +2385,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="2:11" ht="21.75" customHeight="1">
+    <row r="117" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -2383,7 +2397,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="2:11" ht="21.75" customHeight="1">
+    <row r="118" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -2395,7 +2409,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="2:11" ht="21.75" customHeight="1">
+    <row r="119" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -2407,7 +2421,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="2:11" ht="21.75" customHeight="1">
+    <row r="120" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -2419,7 +2433,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="2:11" ht="21.75" customHeight="1">
+    <row r="121" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -2431,7 +2445,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="2:11" ht="21.75" customHeight="1">
+    <row r="122" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -2443,7 +2457,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="2:11" ht="21.75" customHeight="1">
+    <row r="123" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -2455,7 +2469,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="2:11" ht="21.75" customHeight="1">
+    <row r="124" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -2467,7 +2481,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="2:11" ht="21.75" customHeight="1">
+    <row r="125" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -2479,7 +2493,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="2:11" ht="21.75" customHeight="1">
+    <row r="126" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -2491,7 +2505,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="2:11" ht="21.75" customHeight="1">
+    <row r="127" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -2503,7 +2517,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="2:11" ht="21.75" customHeight="1">
+    <row r="128" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -2515,7 +2529,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="2:14" ht="21.75" customHeight="1">
+    <row r="129" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -2527,7 +2541,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="2:14" ht="21.75" customHeight="1">
+    <row r="130" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -2539,7 +2553,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="2:14" ht="21.75" customHeight="1">
+    <row r="131" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -2551,7 +2565,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="2:14" ht="21.75" customHeight="1">
+    <row r="132" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -2563,7 +2577,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="2:14" ht="21.75" customHeight="1">
+    <row r="133" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -2575,7 +2589,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="2:14" ht="21.75" customHeight="1">
+    <row r="134" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -2587,7 +2601,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="2:14" ht="22.5" customHeight="1">
+    <row r="135" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -2602,7 +2616,7 @@
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
     </row>
-    <row r="136" spans="2:14" ht="21.75" customHeight="1">
+    <row r="136" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -2617,7 +2631,7 @@
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
     </row>
-    <row r="137" spans="2:14" ht="21.75" customHeight="1">
+    <row r="137" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -2632,7 +2646,7 @@
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
     </row>
-    <row r="138" spans="2:14" ht="21.75" customHeight="1">
+    <row r="138" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -2647,7 +2661,7 @@
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
     </row>
-    <row r="139" spans="2:14" ht="21.75" customHeight="1">
+    <row r="139" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -2659,7 +2673,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="2:14" ht="21.75" customHeight="1">
+    <row r="140" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -2671,7 +2685,7 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="2:14" ht="21.75" customHeight="1">
+    <row r="141" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -2683,7 +2697,7 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="2:14" ht="21.75" customHeight="1">
+    <row r="142" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -2695,7 +2709,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="2:14" ht="21.75" customHeight="1">
+    <row r="143" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
       <c r="D143" s="2"/>
@@ -2707,7 +2721,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="2:14" ht="21.75" customHeight="1">
+    <row r="144" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
       <c r="D144" s="2"/>
@@ -2719,7 +2733,7 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="2:11" ht="21.75" customHeight="1">
+    <row r="145" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="2"/>
@@ -2731,7 +2745,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="2:11" ht="21.75" customHeight="1">
+    <row r="146" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
       <c r="D146" s="2"/>
@@ -2743,7 +2757,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="2:11" ht="21.75" customHeight="1">
+    <row r="147" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="2"/>
@@ -2755,7 +2769,7 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="2:11" ht="21.75" customHeight="1">
+    <row r="148" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
       <c r="D148" s="2"/>
@@ -2767,7 +2781,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="2:11" ht="21.75" customHeight="1">
+    <row r="149" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="2"/>
@@ -2779,7 +2793,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="2:11" ht="21.75" customHeight="1">
+    <row r="150" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
       <c r="D150" s="2"/>
@@ -2791,7 +2805,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="2:11" ht="21.75" customHeight="1">
+    <row r="151" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="3"/>
       <c r="D151" s="2"/>
@@ -2803,7 +2817,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="2:11" ht="21.75" customHeight="1">
+    <row r="152" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="3"/>
       <c r="D152" s="2"/>
@@ -2815,7 +2829,7 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="2:11" ht="21.75" customHeight="1">
+    <row r="153" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="3"/>
       <c r="D153" s="2"/>
@@ -2827,7 +2841,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="2:11" ht="21.75" customHeight="1">
+    <row r="154" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="3"/>
       <c r="D154" s="2"/>
@@ -2839,7 +2853,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="2:11" ht="21.75" customHeight="1">
+    <row r="155" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="3"/>
       <c r="D155" s="2"/>
@@ -2851,7 +2865,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="2:11" ht="21.75" customHeight="1">
+    <row r="156" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="3"/>
       <c r="D156" s="2"/>
@@ -2863,7 +2877,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="2:11" ht="21.75" customHeight="1">
+    <row r="157" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="3"/>
       <c r="D157" s="2"/>
@@ -2875,7 +2889,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="2:11" ht="21.75" customHeight="1">
+    <row r="158" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="3"/>
       <c r="D158" s="2"/>
@@ -2887,7 +2901,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="2:11" ht="21.75" customHeight="1">
+    <row r="159" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="3"/>
       <c r="D159" s="2"/>
@@ -2899,7 +2913,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="2:11" ht="21.75" customHeight="1">
+    <row r="160" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="3"/>
       <c r="D160" s="2"/>
@@ -2911,7 +2925,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="2:11" ht="21.75" customHeight="1">
+    <row r="161" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="C161" s="3"/>
       <c r="D161" s="2"/>
@@ -2923,7 +2937,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="2:11" ht="21.75" customHeight="1">
+    <row r="162" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="C162" s="3"/>
       <c r="D162" s="2"/>
@@ -2935,7 +2949,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="2:11" ht="21.75" customHeight="1">
+    <row r="163" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
       <c r="C163" s="3"/>
       <c r="D163" s="2"/>
@@ -2947,7 +2961,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="2:11" ht="21.75" customHeight="1">
+    <row r="164" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="C164" s="3"/>
       <c r="D164" s="2"/>
@@ -2959,7 +2973,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="2:11" ht="21.75" customHeight="1">
+    <row r="165" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="3"/>
       <c r="D165" s="2"/>
@@ -2971,7 +2985,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="2:11" ht="21.75" customHeight="1">
+    <row r="166" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="C166" s="3"/>
       <c r="D166" s="2"/>
@@ -2983,7 +2997,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="2:11" ht="21.75" customHeight="1">
+    <row r="167" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
       <c r="C167" s="3"/>
       <c r="D167" s="2"/>
@@ -2995,7 +3009,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="2:11" ht="21.75" customHeight="1">
+    <row r="168" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="C168" s="3"/>
       <c r="D168" s="2"/>
@@ -3007,7 +3021,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="2:11" ht="21.75" customHeight="1">
+    <row r="169" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="C169" s="3"/>
       <c r="D169" s="2"/>
@@ -3019,7 +3033,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="2:11" ht="21.75" customHeight="1">
+    <row r="170" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="C170" s="3"/>
       <c r="D170" s="2"/>
@@ -3031,7 +3045,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="2:11" ht="21.75" customHeight="1">
+    <row r="171" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
       <c r="C171" s="3"/>
       <c r="D171" s="2"/>
@@ -3043,7 +3057,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" spans="2:11" ht="21.75" customHeight="1">
+    <row r="172" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="C172" s="3"/>
       <c r="D172" s="2"/>
@@ -3055,7 +3069,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
-    <row r="173" spans="2:11" ht="21.75" customHeight="1">
+    <row r="173" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="2"/>
       <c r="C173" s="3"/>
       <c r="D173" s="2"/>
@@ -3067,7 +3081,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
-    <row r="174" spans="2:11" ht="21.75" customHeight="1">
+    <row r="174" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
@@ -3079,7 +3093,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="2:11" ht="21.75" customHeight="1">
+    <row r="175" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
@@ -3091,7 +3105,7 @@
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
-    <row r="176" spans="2:11" ht="21.75" customHeight="1">
+    <row r="176" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
@@ -3103,7 +3117,7 @@
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
     </row>
-    <row r="177" spans="2:11" ht="21.75" customHeight="1">
+    <row r="177" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
@@ -3115,7 +3129,7 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" spans="2:11" ht="21.75" customHeight="1">
+    <row r="178" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
@@ -3127,7 +3141,7 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="2:11" ht="21.75" customHeight="1">
+    <row r="179" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
@@ -3139,7 +3153,7 @@
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
-    <row r="180" spans="2:11" ht="21.75" customHeight="1">
+    <row r="180" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
@@ -3151,7 +3165,7 @@
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
-    <row r="181" spans="2:11" ht="21.75" customHeight="1">
+    <row r="181" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
@@ -3163,7 +3177,7 @@
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
-    <row r="182" spans="2:11" ht="21.75" customHeight="1">
+    <row r="182" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -3175,7 +3189,7 @@
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" spans="2:11" ht="21.75" customHeight="1">
+    <row r="183" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
@@ -3187,7 +3201,7 @@
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
     </row>
-    <row r="184" spans="2:11" ht="21.75" customHeight="1">
+    <row r="184" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
@@ -3199,7 +3213,7 @@
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
     </row>
-    <row r="185" spans="2:11" ht="21.75" customHeight="1">
+    <row r="185" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="3"/>
@@ -3211,7 +3225,7 @@
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
-    <row r="186" spans="2:11" ht="21.75" customHeight="1">
+    <row r="186" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -3223,7 +3237,7 @@
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
-    <row r="187" spans="2:11" ht="21.75" customHeight="1">
+    <row r="187" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -3235,7 +3249,7 @@
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" spans="2:11" ht="21.75" customHeight="1">
+    <row r="188" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -3247,7 +3261,7 @@
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
     </row>
-    <row r="189" spans="2:11" ht="21.75" customHeight="1">
+    <row r="189" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -3259,7 +3273,7 @@
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
-    <row r="190" spans="2:11" ht="21.75" customHeight="1">
+    <row r="190" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -3271,7 +3285,7 @@
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
-    <row r="191" spans="2:11" ht="21.75" customHeight="1">
+    <row r="191" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="3"/>
@@ -3283,7 +3297,7 @@
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
-    <row r="192" spans="2:11" ht="21.75" customHeight="1">
+    <row r="192" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
@@ -3295,7 +3309,7 @@
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="2:11" ht="21.75" customHeight="1">
+    <row r="193" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
@@ -3307,7 +3321,7 @@
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="2:11" ht="21.75" customHeight="1">
+    <row r="194" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -3319,7 +3333,7 @@
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="2:11" ht="21.75" customHeight="1">
+    <row r="195" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -3331,7 +3345,7 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="2:11" ht="21.75" customHeight="1">
+    <row r="196" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -3343,7 +3357,7 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="2:11" ht="21.75" customHeight="1">
+    <row r="197" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
@@ -3355,7 +3369,7 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="2:11" ht="21.75" customHeight="1">
+    <row r="198" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
@@ -3367,7 +3381,7 @@
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="2:11" ht="21.75" customHeight="1">
+    <row r="199" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="3"/>
@@ -3379,7 +3393,7 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="2:11" ht="21.75" customHeight="1">
+    <row r="200" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -3391,7 +3405,7 @@
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="2:11" ht="21.75" customHeight="1">
+    <row r="201" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -3403,7 +3417,7 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="2:11" ht="21.75" customHeight="1">
+    <row r="202" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -3415,7 +3429,7 @@
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="2:11" ht="21.75" customHeight="1">
+    <row r="203" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -3427,7 +3441,7 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="2:11" ht="21.75" customHeight="1">
+    <row r="204" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -3439,7 +3453,7 @@
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="2:11" ht="21.75" customHeight="1">
+    <row r="205" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -3451,7 +3465,7 @@
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="2:11" ht="21.75" customHeight="1">
+    <row r="206" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="3"/>
@@ -3463,7 +3477,7 @@
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="2:11" ht="21.75" customHeight="1">
+    <row r="207" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
@@ -3475,7 +3489,7 @@
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="2:11" ht="21.75" customHeight="1">
+    <row r="208" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
@@ -3487,7 +3501,7 @@
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="2:11" ht="21.75" customHeight="1">
+    <row r="209" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
@@ -3499,7 +3513,7 @@
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="2:11" ht="21.75" customHeight="1">
+    <row r="210" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="3"/>
@@ -3511,7 +3525,7 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="2:11" ht="21.75" customHeight="1">
+    <row r="211" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -3523,7 +3537,7 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="2:11" ht="21.75" customHeight="1">
+    <row r="212" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -3535,7 +3549,7 @@
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" spans="2:11" ht="21.75" customHeight="1">
+    <row r="213" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="3"/>
@@ -3547,7 +3561,7 @@
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" spans="2:11" ht="21.75" customHeight="1">
+    <row r="214" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="3"/>
@@ -3559,7 +3573,7 @@
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="2:11" ht="21.75" customHeight="1">
+    <row r="215" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
@@ -3571,7 +3585,7 @@
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="2:11" ht="21.75" customHeight="1">
+    <row r="216" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="3"/>
@@ -3583,7 +3597,7 @@
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="2:11" ht="21.75" customHeight="1">
+    <row r="217" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
@@ -3595,7 +3609,7 @@
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="2:11" ht="21.75" customHeight="1">
+    <row r="218" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="3"/>
@@ -3607,7 +3621,7 @@
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="2:11" ht="21.75" customHeight="1">
+    <row r="219" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
@@ -3619,7 +3633,7 @@
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="2:11" ht="21.75" customHeight="1">
+    <row r="220" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
@@ -3631,7 +3645,7 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="2:11" ht="21.75" customHeight="1">
+    <row r="221" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
@@ -3643,7 +3657,7 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="2:11" ht="21.75" customHeight="1">
+    <row r="222" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
@@ -3655,7 +3669,7 @@
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="2:11" ht="21.75" customHeight="1">
+    <row r="223" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="3"/>
@@ -3667,7 +3681,7 @@
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="2:11" ht="21.75" customHeight="1">
+    <row r="224" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="3"/>
@@ -3679,7 +3693,7 @@
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" spans="2:11" ht="21.75" customHeight="1">
+    <row r="225" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
@@ -3691,7 +3705,7 @@
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="2:11" ht="21.75" customHeight="1">
+    <row r="226" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
@@ -3703,7 +3717,7 @@
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="2:11" ht="21.75" customHeight="1">
+    <row r="227" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
@@ -3715,7 +3729,7 @@
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="2:11" ht="21.75" customHeight="1">
+    <row r="228" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
@@ -3727,7 +3741,7 @@
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="2:11" ht="21.75" customHeight="1">
+    <row r="229" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
@@ -3739,7 +3753,7 @@
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="2:11" ht="21.75" customHeight="1">
+    <row r="230" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
@@ -3751,7 +3765,7 @@
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="2:11" ht="21.75" customHeight="1">
+    <row r="231" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="3"/>
@@ -3763,7 +3777,7 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="2:11" ht="21.75" customHeight="1">
+    <row r="232" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="3"/>
@@ -3775,7 +3789,7 @@
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="2:11" ht="21.75" customHeight="1">
+    <row r="233" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
@@ -3787,7 +3801,7 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="2:11" ht="21.75" customHeight="1">
+    <row r="234" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
@@ -3799,7 +3813,7 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="2:11" ht="21.75" customHeight="1">
+    <row r="235" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
@@ -3811,7 +3825,7 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="2:11" ht="21.75" customHeight="1">
+    <row r="236" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="3"/>
@@ -3823,7 +3837,7 @@
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="2:11" ht="21.75" customHeight="1">
+    <row r="237" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="3"/>
@@ -3835,7 +3849,7 @@
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="2:11" ht="21.75" customHeight="1">
+    <row r="238" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="3"/>
@@ -3847,7 +3861,7 @@
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="2:11" ht="21.75" customHeight="1">
+    <row r="239" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="3"/>
@@ -3859,7 +3873,7 @@
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="2:11" ht="21.75" customHeight="1">
+    <row r="240" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="3"/>
@@ -3871,7 +3885,7 @@
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="2:11" ht="21.75" customHeight="1">
+    <row r="241" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="3"/>
@@ -3883,7 +3897,7 @@
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="2:11" ht="21.75" customHeight="1">
+    <row r="242" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="3"/>
@@ -3895,7 +3909,7 @@
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="2:11" ht="21.75" customHeight="1">
+    <row r="243" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="3"/>
@@ -3907,7 +3921,7 @@
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" spans="2:11" ht="21.75" customHeight="1">
+    <row r="244" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="3"/>
@@ -3919,7 +3933,7 @@
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="2:11" ht="21.75" customHeight="1">
+    <row r="245" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="3"/>
@@ -3931,7 +3945,7 @@
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="2:11" ht="21.75" customHeight="1">
+    <row r="246" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="3"/>
@@ -3943,7 +3957,7 @@
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="2:11" ht="21.75" customHeight="1">
+    <row r="247" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
@@ -3955,7 +3969,7 @@
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="2:11" ht="21.75" customHeight="1">
+    <row r="248" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="3"/>
@@ -3967,7 +3981,7 @@
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="2:11" ht="21.75" customHeight="1">
+    <row r="249" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="3"/>
@@ -3979,7 +3993,7 @@
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" spans="2:11" ht="21.75" customHeight="1">
+    <row r="250" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="3"/>
@@ -3991,7 +4005,7 @@
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="2:11" ht="21.75" customHeight="1">
+    <row r="251" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="3"/>
@@ -4003,7 +4017,7 @@
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="2:11" ht="21.75" customHeight="1">
+    <row r="252" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="3"/>
@@ -4015,7 +4029,7 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="2:11" ht="21.75" customHeight="1">
+    <row r="253" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
@@ -4027,7 +4041,7 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="2:11" ht="21.75" customHeight="1">
+    <row r="254" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="3"/>
@@ -4039,7 +4053,7 @@
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="2:11" ht="21.75" customHeight="1">
+    <row r="255" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
@@ -4051,7 +4065,7 @@
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="2:11" ht="21.75" customHeight="1">
+    <row r="256" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
@@ -4063,7 +4077,7 @@
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="2:11" ht="21.75" customHeight="1">
+    <row r="257" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
@@ -4075,7 +4089,7 @@
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="2:11" ht="21.75" customHeight="1">
+    <row r="258" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="3"/>
@@ -4087,7 +4101,7 @@
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="2:11" ht="21.75" customHeight="1">
+    <row r="259" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="3"/>
@@ -4099,7 +4113,7 @@
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="2:11" ht="21.75" customHeight="1">
+    <row r="260" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="3"/>
@@ -4111,7 +4125,7 @@
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="2:11" ht="21.75" customHeight="1">
+    <row r="261" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="3"/>
@@ -4123,7 +4137,7 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="2:11" ht="21.75" customHeight="1">
+    <row r="262" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="3"/>
@@ -4135,7 +4149,7 @@
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="2:11" ht="21.75" customHeight="1">
+    <row r="263" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="3"/>
@@ -4147,7 +4161,7 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="2:11" ht="21.75" customHeight="1">
+    <row r="264" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="3"/>
@@ -4159,7 +4173,7 @@
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" spans="2:11" ht="21.75" customHeight="1">
+    <row r="265" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="3"/>
@@ -4171,7 +4185,7 @@
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
     </row>
-    <row r="266" spans="2:11" ht="21.75" customHeight="1">
+    <row r="266" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="3"/>
@@ -4183,7 +4197,7 @@
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="2:11" ht="21.75" customHeight="1">
+    <row r="267" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="3"/>
@@ -4195,7 +4209,7 @@
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" spans="2:11" ht="21.75" customHeight="1">
+    <row r="268" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="3"/>
@@ -4207,7 +4221,7 @@
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" spans="2:11" ht="21.75" customHeight="1">
+    <row r="269" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="3"/>
@@ -4219,7 +4233,7 @@
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="2:11" ht="21.75" customHeight="1">
+    <row r="270" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="3"/>
@@ -4231,7 +4245,7 @@
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="2:11" ht="21.75" customHeight="1">
+    <row r="271" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="3"/>
@@ -4243,7 +4257,7 @@
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="2:11" ht="21.75" customHeight="1">
+    <row r="272" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="3"/>
@@ -4255,7 +4269,7 @@
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
     </row>
-    <row r="273" spans="2:11" ht="21.75" customHeight="1">
+    <row r="273" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="3"/>
@@ -4267,7 +4281,7 @@
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" spans="2:11" ht="21.75" customHeight="1">
+    <row r="274" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="3"/>
